--- a/HTML-CSS/Test/Test-HTML-CSS.xlsx
+++ b/HTML-CSS/Test/Test-HTML-CSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dženan Košuta\GitHub\IT Camp - 2. grupa\HTML-CSS\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B3E3C0-C22B-4661-A1DD-1E4CB34A2E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05DAD1F-C8F0-4353-A8A5-0A623A5C0342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>TEST</t>
   </si>
@@ -51,6 +51,51 @@
   </si>
   <si>
     <t>Ime i prezime</t>
+  </si>
+  <si>
+    <t>Amer Honić</t>
+  </si>
+  <si>
+    <t>Nikola Božović</t>
+  </si>
+  <si>
+    <t>Miona Vranić</t>
+  </si>
+  <si>
+    <t>Mitar Vranić</t>
+  </si>
+  <si>
+    <t>Aladin Zečić</t>
+  </si>
+  <si>
+    <t>Haris Muslić</t>
+  </si>
+  <si>
+    <t>Bakir Ujkanović</t>
+  </si>
+  <si>
+    <t>Dženan Mecinović</t>
+  </si>
+  <si>
+    <t>Emin Zukanović</t>
+  </si>
+  <si>
+    <t>Tarik Ibrović</t>
+  </si>
+  <si>
+    <t>Alen Muslić</t>
+  </si>
+  <si>
+    <t>Hatidža Mahmutović</t>
+  </si>
+  <si>
+    <t>Mehmed Kučević</t>
+  </si>
+  <si>
+    <t>Šejla Nišlija</t>
+  </si>
+  <si>
+    <t>Omar Šemsović</t>
   </si>
 </sst>
 </file>
@@ -493,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -554,210 +599,270 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4">
         <f>C4+D4+E4+F4</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>28</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="5"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G22" si="0">C5+D5+E5+F5</f>
-        <v>0</v>
+        <f t="shared" ref="G5:G19" si="0">C5+D5+E5+F5</f>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>28</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="5"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="5"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>30</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="5"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>28</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="5"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>26</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>23</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="5"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>27</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="5"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>27</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>30</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>27</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <v>25</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
       <c r="F18" s="3"/>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -770,48 +875,6 @@
       <c r="E19" s="5"/>
       <c r="F19" s="3"/>
       <c r="G19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/HTML-CSS/Test/Test-HTML-CSS.xlsx
+++ b/HTML-CSS/Test/Test-HTML-CSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dženan Košuta\GitHub\IT Camp - 2. grupa\HTML-CSS\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05DAD1F-C8F0-4353-A8A5-0A623A5C0342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD06BE04-1C41-4D21-8E85-01BBF987EE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>TEST</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Omar Šemsović</t>
+  </si>
+  <si>
+    <t>Hasan Mujanović</t>
   </si>
 </sst>
 </file>
@@ -641,12 +644,18 @@
       <c r="C6" s="2">
         <v>28</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="3">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3">
+        <v>18</v>
+      </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -659,12 +668,18 @@
       <c r="C7" s="2">
         <v>30</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="3">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3">
+        <v>15</v>
+      </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -749,12 +764,18 @@
       <c r="C12" s="2">
         <v>27</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="3">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3">
+        <v>15</v>
+      </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -803,12 +824,18 @@
       <c r="C15" s="2">
         <v>30</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="3">
+        <v>19</v>
+      </c>
+      <c r="E15" s="5">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3">
+        <v>17</v>
+      </c>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -839,12 +866,18 @@
       <c r="C17" s="2">
         <v>30</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="3">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3">
+        <v>13</v>
+      </c>
       <c r="G17" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -857,19 +890,27 @@
       <c r="C18" s="2">
         <v>25</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="3">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3">
+        <v>14</v>
+      </c>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>

--- a/HTML-CSS/Test/Test-HTML-CSS.xlsx
+++ b/HTML-CSS/Test/Test-HTML-CSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dženan Košuta\GitHub\IT Camp - 2. grupa\HTML-CSS\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD06BE04-1C41-4D21-8E85-01BBF987EE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C38159-DB75-4EBA-BB58-1CBCBD8712BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,12 +626,18 @@
       <c r="C5" s="2">
         <v>28</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="3">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3">
+        <v>19</v>
+      </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G19" si="0">C5+D5+E5+F5</f>
-        <v>28</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -710,12 +716,18 @@
       <c r="C9" s="2">
         <v>28</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="3">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3">
+        <v>19</v>
+      </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -746,12 +758,18 @@
       <c r="C11" s="2">
         <v>23</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3">
+        <v>20</v>
+      </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -788,12 +806,18 @@
       <c r="C13" s="2">
         <v>20</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="3">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3">
+        <v>14</v>
+      </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -806,12 +830,18 @@
       <c r="C14" s="2">
         <v>27</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="3">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
+        <v>19</v>
+      </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -848,12 +878,18 @@
       <c r="C16" s="2">
         <v>27</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3">
+        <v>20</v>
+      </c>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">

--- a/HTML-CSS/Test/Test-HTML-CSS.xlsx
+++ b/HTML-CSS/Test/Test-HTML-CSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dženan Košuta\GitHub\IT Camp - 2. grupa\HTML-CSS\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C38159-DB75-4EBA-BB58-1CBCBD8712BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F0FA99-35BF-4AEC-BEE1-94CAAB799C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,12 +608,18 @@
       <c r="C4" s="2">
         <v>30</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
       <c r="G4" s="4">
         <f>C4+D4+E4+F4</f>
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -698,12 +704,18 @@
       <c r="C8" s="2">
         <v>30</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3">
+        <v>20</v>
+      </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,12 +752,18 @@
       <c r="C10" s="2">
         <v>26</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20</v>
+      </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/HTML-CSS/Test/Test-HTML-CSS.xlsx
+++ b/HTML-CSS/Test/Test-HTML-CSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dženan Košuta\GitHub\IT Camp - 2. grupa\HTML-CSS\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F0FA99-35BF-4AEC-BEE1-94CAAB799C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C988CF-4703-40F2-AEDA-E06198FF4A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -965,13 +965,21 @@
       <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="2">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
+        <v>27</v>
+      </c>
+      <c r="F19" s="3">
+        <v>20</v>
+      </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/HTML-CSS/Test/Test-HTML-CSS.xlsx
+++ b/HTML-CSS/Test/Test-HTML-CSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dženan Košuta\GitHub\IT Camp - 2. grupa\HTML-CSS\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C988CF-4703-40F2-AEDA-E06198FF4A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218E79BE-F1E6-4BF0-B7C0-EF7ECE85EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TEST</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Hasan Mujanović</t>
+  </si>
+  <si>
+    <t>Amir Zornić</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -642,7 +645,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G19" si="0">C5+D5+E5+F5</f>
+        <f t="shared" ref="G5:G20" si="0">C5+D5+E5+F5</f>
         <v>88</v>
       </c>
     </row>
@@ -963,21 +966,45 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
+        <v>30</v>
+      </c>
+      <c r="F19" s="3">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2">
-        <v>30</v>
-      </c>
-      <c r="D19" s="3">
-        <v>20</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="C20" s="2">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5">
         <v>27</v>
       </c>
-      <c r="F19" s="3">
-        <v>20</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F20" s="3">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
